--- a/uploads/ProyectoNuevo/prueba carga proyecto.xlsx
+++ b/uploads/ProyectoNuevo/prueba carga proyecto.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enami-my.sharepoint.com/personal/pjdiaz_enami_cl/Documents/Escritorio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enami-my.sharepoint.com/personal/pjdiaz_enami_cl/Documents/Escritorio/Proyecto37/Proyecto16/Proyecto11/proyecto2/uploads/ProyectoNuevo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_AD4D2F04E46CFB4ACB3E20C07D90DEBA683EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CC6F2DC-A968-4C62-A578-B8DAA4758089}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_AD4D2F04E46CFB4ACB3E20C07D90DEBA683EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86546E9B-5E0F-4ED2-BE64-CDD4929658F3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>id</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>prueba</t>
+  </si>
+  <si>
+    <t>Mina Panulcillo</t>
   </si>
 </sst>
 </file>
@@ -365,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -398,6 +401,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/uploads/ProyectoNuevo/prueba carga proyecto.xlsx
+++ b/uploads/ProyectoNuevo/prueba carga proyecto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enami-my.sharepoint.com/personal/pjdiaz_enami_cl/Documents/Escritorio/Proyecto37/Proyecto16/Proyecto11/proyecto2/uploads/ProyectoNuevo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_AD4D2F04E46CFB4ACB3E20C07D90DEBA683EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86546E9B-5E0F-4ED2-BE64-CDD4929658F3}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_AD4D2F04E46CFB4ACB3E20C07D90DEBA683EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01691E24-81D8-485E-A938-DE9EFFA43046}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>id</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>Mina Panulcillo</t>
+  </si>
+  <si>
+    <t>porcentaje_utilidades</t>
+  </si>
+  <si>
+    <t>porcentaje_contingencia</t>
   </si>
 </sst>
 </file>
@@ -368,18 +374,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="21.08984375" customWidth="1"/>
+    <col min="4" max="4" width="19.90625" customWidth="1"/>
+    <col min="5" max="5" width="22.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -389,8 +397,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2</v>
       </c>
@@ -400,8 +414,11 @@
       <c r="C2">
         <v>1</v>
       </c>
+      <c r="E2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>5</v>
       </c>
@@ -410,6 +427,9 @@
       </c>
       <c r="C3">
         <v>5</v>
+      </c>
+      <c r="D3">
+        <v>11.11</v>
       </c>
     </row>
   </sheetData>
